--- a/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
@@ -2,41 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/els_palmans_hogent_be/Documents/Documenten/Els/Jan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB0BD10-A2E2-44FE-BF47-AB5D4B4D883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB849031-D57A-4F56-8E8E-188EA39555B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
   </bookViews>
   <sheets>
     <sheet name="iperf2 summary" sheetId="1" r:id="rId1"/>
+    <sheet name="iperf udp verschillende Mbs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="27">
   <si>
     <t>4G</t>
   </si>
@@ -88,15 +78,51 @@
   <si>
     <t>5G</t>
   </si>
+  <si>
+    <t>4G 26-05</t>
+  </si>
+  <si>
+    <t>2 M</t>
+  </si>
+  <si>
+    <t>50 M</t>
+  </si>
+  <si>
+    <t>5 M</t>
+  </si>
+  <si>
+    <t>0-120</t>
+  </si>
+  <si>
+    <t>Mbytes</t>
+  </si>
+  <si>
+    <t>0/20719</t>
+  </si>
+  <si>
+    <t>Lost/Total Datagrams</t>
+  </si>
+  <si>
+    <t>0/51796</t>
+  </si>
+  <si>
+    <t>0/517953</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -320,8 +346,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -660,42 +685,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF388007-9D6A-4EBE-9E06-16B4AA55ACB3}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+    <row r="1" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -736,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -773,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -814,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -851,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -892,7 +917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -929,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -970,44 +995,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9">
         <v>14.3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9">
         <v>0.20100000000000001</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -1085,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -1163,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -1241,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1282,7 +1306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
@@ -1319,7 +1343,1484 @@
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>14.3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F345E3E-182C-4928-98C4-76D2273ED700}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>28.6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>28.6</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>28.6</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>28.6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0.255</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>28.6</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>28.6</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>28.6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>28.6</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0.161</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>28.6</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>28.6</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>28.6</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>28.6</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>28.6</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>28.6</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>28.6</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>28.6</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2.94</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>71.5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>71.5</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>71.5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>71.5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>0.111</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>71.5</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>71.5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0.187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>71.5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>71.5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>71.5</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>71.5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>0.16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>71.5</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>71.5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>0.159</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>71.5</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>71.5</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>0.159</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>71.5</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>71.5</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>715</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>715</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>0.183</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>715</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>715</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>0.19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>715</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>715</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>715</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>715</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>0.187</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>715</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>715</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>0.183</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>715</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>715</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>715</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>715</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>715</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>715</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB849031-D57A-4F56-8E8E-188EA39555B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A66B8C-3AF1-40A6-A842-30B322450386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="21120" windowHeight="10632" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
   </bookViews>
   <sheets>
     <sheet name="iperf2 summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="31">
   <si>
     <t>4G</t>
   </si>
@@ -82,9 +82,6 @@
     <t>4G 26-05</t>
   </si>
   <si>
-    <t>2 M</t>
-  </si>
-  <si>
     <t>50 M</t>
   </si>
   <si>
@@ -94,12 +91,6 @@
     <t>0-120</t>
   </si>
   <si>
-    <t>Mbytes</t>
-  </si>
-  <si>
-    <t>0/20719</t>
-  </si>
-  <si>
     <t>Lost/Total Datagrams</t>
   </si>
   <si>
@@ -107,6 +98,27 @@
   </si>
   <si>
     <t>0/517953</t>
+  </si>
+  <si>
+    <t>WI-FI</t>
+  </si>
+  <si>
+    <t>jitter</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>datagrams nog bekijken</t>
+  </si>
+  <si>
+    <t>1 Mbits/sec</t>
+  </si>
+  <si>
+    <t>5 Mbits/sec</t>
+  </si>
+  <si>
+    <t>50 Mbits/sec</t>
   </si>
 </sst>
 </file>
@@ -366,6 +378,1187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Jitter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iperf udp verschillende Mbs'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WI-FI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iperf udp verschillende Mbs'!$O$3:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Mbits/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Mbits/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50 Mbits/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iperf udp verschillende Mbs'!$P$3:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79925000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F2D-401F-878F-9AD325ED8A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iperf udp verschillende Mbs'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iperf udp verschillende Mbs'!$O$3:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Mbits/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Mbits/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50 Mbits/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iperf udp verschillende Mbs'!$Q$3:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18875000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F2D-401F-878F-9AD325ED8A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iperf udp verschillende Mbs'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iperf udp verschillende Mbs'!$O$3:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Mbits/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Mbits/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50 Mbits/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iperf udp verschillende Mbs'!$R$3:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19775000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F2D-401F-878F-9AD325ED8A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="542717048"/>
+        <c:axId val="542712728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542717048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Bitrate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4905820209973753"/>
+              <c:y val="0.77740667833187516"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542712728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542712728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542717048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14303368328958879"/>
+          <c:y val="0.80150408282298047"/>
+          <c:w val="0.2305990813648294"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CB2B9D-BDA4-4B30-0553-122416C35D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,15 +1878,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF388007-9D6A-4EBE-9E06-16B4AA55ACB3}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="C1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21" t="s">
@@ -720,7 +1913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -760,8 +1953,11 @@
       <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -797,8 +1993,17 @@
       <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -838,8 +2043,23 @@
       <c r="M4" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4">
+        <f>(I3+I5+I7+I9)/4</f>
+        <v>0.79925000000000002</v>
+      </c>
+      <c r="Q4">
+        <f>(I19+I21+I23+I25)/4</f>
+        <v>0.313</v>
+      </c>
+      <c r="R4">
+        <f>(I11+I13+I15+I17)/4</f>
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -876,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -917,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -954,7 +2174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -995,7 +2215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="C9" t="s">
         <v>7</v>
@@ -1031,7 +2251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +2292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -1109,7 +2329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -1187,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -1265,7 +2485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1662,17 +2882,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F345E3E-182C-4928-98C4-76D2273ED700}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
@@ -1691,12 +2911,15 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L1" s="21"/>
       <c r="M1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1704,54 +2927,69 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>28.6</v>
-      </c>
-      <c r="F2" t="s">
+        <v>71.5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>0.29499999999999998</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <v>0.79925000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.313</v>
+      </c>
+      <c r="R3">
+        <v>0.3795</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1759,45 +2997,67 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <f>(I3+I5+I7+I9)/4</f>
+        <v>0.15100000000000002</v>
+      </c>
+      <c r="R4">
+        <f>(I11+I13+I15+I17)/4</f>
+        <v>0.17099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0.255</v>
+        <v>0.111</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <f>(I20+I22+I24+I26)/4</f>
+        <v>0.18875000000000003</v>
+      </c>
+      <c r="R5">
+        <f>(I28+I30+I32+I34)/4</f>
+        <v>0.19775000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1805,45 +3065,45 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0.17199999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1851,45 +3111,45 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>0.161</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1897,45 +3157,45 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>0.13900000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1943,45 +3203,45 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>0.23899999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1989,45 +3249,45 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>3.7829999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2035,19 +3295,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
@@ -2055,19 +3315,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>28.6</v>
+        <v>71.5</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>2.94</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -2075,7 +3335,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2086,19 +3346,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
         <v>13</v>
@@ -2106,19 +3366,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I20">
-        <v>0.16800000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -2132,19 +3392,19 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
         <v>13</v>
@@ -2152,19 +3412,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>0.111</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
         <v>15</v>
@@ -2178,19 +3438,19 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M23" t="s">
         <v>13</v>
@@ -2198,19 +3458,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>0.187</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M24" t="s">
         <v>15</v>
@@ -2224,19 +3484,19 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
         <v>13</v>
@@ -2244,19 +3504,19 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I26">
-        <v>0.13800000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
         <v>15</v>
@@ -2270,19 +3530,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
         <v>13</v>
@@ -2290,19 +3550,19 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I28">
-        <v>0.16</v>
+        <v>0.183</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
         <v>15</v>
@@ -2316,19 +3576,19 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
         <v>13</v>
@@ -2336,19 +3596,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <v>0.159</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
         <v>15</v>
@@ -2362,19 +3622,19 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
         <v>13</v>
@@ -2382,19 +3642,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I32">
-        <v>0.159</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
         <v>15</v>
@@ -2408,19 +3668,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
         <v>13</v>
@@ -2428,399 +3688,27 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>71.5</v>
+        <v>715</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>0.20599999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36">
-        <v>715</v>
-      </c>
-      <c r="G36">
-        <v>50</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37">
-        <v>715</v>
-      </c>
-      <c r="G37">
-        <v>50</v>
-      </c>
-      <c r="I37">
-        <v>0.183</v>
-      </c>
-      <c r="K37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38">
-        <v>715</v>
-      </c>
-      <c r="G38">
-        <v>50</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39">
-        <v>715</v>
-      </c>
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="I39">
-        <v>0.19</v>
-      </c>
-      <c r="K39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40">
-        <v>715</v>
-      </c>
-      <c r="G40">
-        <v>50</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41">
-        <v>715</v>
-      </c>
-      <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="I41">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42">
-        <v>715</v>
-      </c>
-      <c r="G42">
-        <v>50</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43">
-        <v>715</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-      <c r="I43">
-        <v>0.187</v>
-      </c>
-      <c r="K43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44">
-        <v>715</v>
-      </c>
-      <c r="G44">
-        <v>50</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45">
-        <v>715</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-      <c r="I45">
-        <v>0.183</v>
-      </c>
-      <c r="K45" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46">
-        <v>715</v>
-      </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47">
-        <v>715</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="I47">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="K47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48">
-        <v>715</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49">
-        <v>715</v>
-      </c>
-      <c r="G49">
-        <v>50</v>
-      </c>
-      <c r="I49">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="K49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50">
-        <v>715</v>
-      </c>
-      <c r="G50">
-        <v>50</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51">
-        <v>715</v>
-      </c>
-      <c r="G51">
-        <v>50</v>
-      </c>
-      <c r="I51">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="K51" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A66B8C-3AF1-40A6-A842-30B322450386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B02EF-9417-4390-93FC-B33AD7D3A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="21120" windowHeight="10632" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21120" windowHeight="10632" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
   </bookViews>
   <sheets>
     <sheet name="iperf2 summary" sheetId="1" r:id="rId1"/>
     <sheet name="iperf udp verschillende Mbs" sheetId="2" r:id="rId2"/>
+    <sheet name="WIFI5&amp;50" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="33">
   <si>
     <t>4G</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t>50 Mbits/sec</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>50M</t>
   </si>
 </sst>
 </file>
@@ -506,6 +513,12 @@
                 <c:pt idx="0">
                   <c:v>0.79925000000000002</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15775</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -813,7 +826,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-BE"/>
-                  <a:t>ms</a:t>
+                  <a:t>Jiter (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2884,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F345E3E-182C-4928-98C4-76D2273ED700}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3017,6 +3030,10 @@
       <c r="O4" t="s">
         <v>29</v>
       </c>
+      <c r="P4">
+        <f>AVERAGE('WIFI5&amp;50'!C2:C5)</f>
+        <v>0.61999999999999988</v>
+      </c>
       <c r="Q4">
         <f>(I3+I5+I7+I9)/4</f>
         <v>0.15100000000000002</v>
@@ -3047,6 +3064,10 @@
       </c>
       <c r="O5" t="s">
         <v>30</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE('WIFI5&amp;50'!C8:C11)</f>
+        <v>0.15775</v>
       </c>
       <c r="Q5">
         <f>(I20+I22+I24+I26)/4</f>
@@ -3711,4 +3732,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B427E0A6-962B-47B2-B087-0FD69EAD71C1}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1.5269999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B02EF-9417-4390-93FC-B33AD7D3A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2DDFA-790D-4FDF-9BE8-E0F079798250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21120" windowHeight="10632" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21120" windowHeight="10632" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
   </bookViews>
   <sheets>
     <sheet name="iperf2 summary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="34">
   <si>
     <t>4G</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>50M</t>
+  </si>
+  <si>
+    <t>wifi</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WI-FI</c:v>
+                  <c:v>wifi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2958,7 +2961,7 @@
         <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>

--- a/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_iperf2_4G-5G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2DDFA-790D-4FDF-9BE8-E0F079798250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6888F9FC-EA2A-47AE-B333-22FC45BD66A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21120" windowHeight="10632" activeTab="1" xr2:uid="{BBBBB185-B6A8-44F6-8ED9-4B5B1B154432}"/>
   </bookViews>
@@ -669,7 +669,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="300"/>
         <c:axId val="542717048"/>
         <c:axId val="542712728"/>
       </c:barChart>
@@ -706,14 +706,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.4905820209973753"/>
-              <c:y val="0.77740667833187516"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -808,6 +800,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -864,7 +870,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -907,17 +913,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14303368328958879"/>
-          <c:y val="0.80150408282298047"/>
-          <c:w val="0.2305990813648294"/>
-          <c:h val="7.8125546806649182E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2901,7 +2897,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:R5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
